--- a/src/main/resources/ClassDesignMapping.xlsx
+++ b/src/main/resources/ClassDesignMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\eclipse-workspace\Automation-testing\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979EA272-F026-4CE3-ACEC-722917F75036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFBC60B-5089-47FF-B547-980C77C7B3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FC15B1E3-ECF4-4A67-AA52-3B6034C0300E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>BasePageObject</t>
   </si>
@@ -160,12 +160,6 @@
     <t xml:space="preserve"> -void setUpDriver(String browse, ITestContext ctx)</t>
   </si>
   <si>
-    <t>Webdriver driver;</t>
-  </si>
-  <si>
-    <t>Logger log</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -void tearDown()</t>
   </si>
   <si>
@@ -197,6 +191,12 @@
   </si>
   <si>
     <t>ITestContext</t>
+  </si>
+  <si>
+    <t>WebDriver driver=new Webdriver();</t>
+  </si>
+  <si>
+    <t>Logger log=</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -473,6 +473,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2474,7 +2483,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2491,7 @@
     <col min="1" max="4" width="8.7109375" customWidth="1"/>
     <col min="6" max="8" width="17.7109375" style="3"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="19" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="22" style="3" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" style="3" customWidth="1"/>
@@ -2493,59 +2502,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>41</v>
+      <c r="J1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="32"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>37</v>
+      <c r="J3" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>29</v>
+      <c r="N3" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2555,29 +2564,29 @@
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>39</v>
+      <c r="J4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>30</v>
+      <c r="N4" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>16</v>
@@ -2588,27 +2597,27 @@
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="34"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
         <v>16</v>
@@ -2616,61 +2625,61 @@
       <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="36"/>
+      <c r="O6" s="39"/>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
       <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="N7" s="37" t="s">
+      <c r="J7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="38"/>
+      <c r="K7" s="15"/>
+      <c r="N7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="41"/>
       <c r="Q7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="16"/>
       <c r="Q8" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
@@ -2679,12 +2688,12 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2696,12 +2705,12 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2713,12 +2722,12 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
       <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2727,44 +2736,42 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
       <c r="F15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
       <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
@@ -2774,12 +2781,12 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
       <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2791,12 +2798,12 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="G18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2805,12 +2812,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="H19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2865,7 +2872,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
@@ -2887,7 +2894,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/ClassDesignMapping.xlsx
+++ b/src/main/resources/ClassDesignMapping.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\eclipse-workspace\Automation-testing\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Books\eclipse-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFBC60B-5089-47FF-B547-980C77C7B3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FC15B1E3-ECF4-4A67-AA52-3B6034C0300E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>BasePageObject</t>
   </si>
@@ -196,13 +195,22 @@
     <t>WebDriver driver=new Webdriver();</t>
   </si>
   <si>
-    <t>Logger log=</t>
+    <t>Logger log=new Logger();</t>
+  </si>
+  <si>
+    <t>PACKAGE 1</t>
+  </si>
+  <si>
+    <t>PACKAGE 2</t>
+  </si>
+  <si>
+    <t>PACKAGE 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -506,6 +514,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -515,6 +568,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -524,58 +586,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2178,6 +2192,186 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11906"/>
+          <a:ext cx="7715250" cy="5619750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rounded Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791450" y="35719"/>
+          <a:ext cx="1709737" cy="5572125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54769</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rounded Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9972675" y="0"/>
+          <a:ext cx="7715250" cy="5619750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2479,18 +2673,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E55F66-2A22-4C44-AD78-1403E5041DFD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="8.7109375" customWidth="1"/>
     <col min="6" max="8" width="17.7109375" style="3"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="25.42578125" style="19" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="22" style="3" customWidth="1"/>
@@ -2505,32 +2699,32 @@
       <c r="J1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2549,12 +2743,12 @@
       <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2579,12 +2773,12 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
@@ -2603,21 +2797,21 @@
       <c r="L5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="37"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
         <v>16</v>
@@ -2628,21 +2822,21 @@
       <c r="J6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="31"/>
       <c r="Q6" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
@@ -2650,21 +2844,21 @@
         <v>31</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="41"/>
+      <c r="O7" s="33"/>
       <c r="Q7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
       <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2674,12 +2868,12 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
@@ -2688,12 +2882,12 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2705,12 +2899,12 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2722,12 +2916,12 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2747,31 +2941,31 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
       <c r="F15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
       <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
@@ -2780,13 +2974,13 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
       <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2797,13 +2991,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
       <c r="G18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2811,25 +3005,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="H19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2838,7 +3032,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F22" s="5" t="s">
         <v>23</v>
       </c>
@@ -2847,7 +3041,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
@@ -2858,7 +3052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
@@ -2866,13 +3060,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H25" s="4" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="31" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
@@ -2886,14 +3106,6 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
